--- a/fiis_thales_st_novo.xlsx
+++ b/fiis_thales_st_novo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="11_041DDF461A53A20E62355476585DCE3A874F2A6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0EBBF6-5C9F-4408-9F66-BBEF718BA6AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3000,6 +3000,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3347,7 +3348,7 @@
   <dimension ref="A1:AB476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
